--- a/家电明细.xlsx
+++ b/家电明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>已定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖风浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暖 触控 2072瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2072W 300*600 照明、换气、吹风、取暖、暖风干燥、负离子、自动沐浴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +579,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,13 +750,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>699</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -767,11 +795,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:F12" si="0">SUM(E2:E11)</f>
-        <v>24595</v>
+        <v>25294</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">

--- a/家电明细.xlsx
+++ b/家电明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>投影仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2 slim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920*1080 1100ANSI流明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG29NV220C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321升 风冷无霜 两门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖风浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暖 触控 2072瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2072W 300*600 照明、换气、吹风、取暖、暖风干燥、负离子、自动沐浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>洗碗机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,23 +148,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投影仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2 slim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920*1080 1100ANSI流明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
+    <t>洗衣机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,19 +156,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KG29NV220C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>321升 风冷无霜 两门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IQ300 XQG80-WD14G4641W</t>
+    <t>IQ300 XQG80-WD12G4C01W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,43 +164,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃气热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万家乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSQ26-13H6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13升 525*340*155 强排式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已定项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖风浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风暖 触控 2072瓦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2072W 300*600 照明、换气、吹风、取暖、暖风干燥、负离子、自动沐浴</t>
+    <t>林内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13QS04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13升 543*376*148 强排式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿致系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开单控*1、双开双控82、电脑插座*2、单开单控*2、10A5孔带开关*1、三开双控*1、单开双控*4、16A三孔带开关*3、5孔带USB*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +599,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,37 +671,37 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2739</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2299</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>3999</v>
@@ -692,16 +712,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>3399</v>
@@ -711,71 +731,81 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3688</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2699</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E9" s="2">
+        <v>511</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4398</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3">
-        <v>699</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>948</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -795,7 +825,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:F12" si="0">SUM(E2:E11)</f>
-        <v>25294</v>
+        <v>22103</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
@@ -804,12 +834,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
